--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y988"/>
+  <dimension ref="A1:Y989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59151,7 +59151,7 @@
       </c>
       <c r="R987" s="2" t="inlineStr"/>
     </row>
-    <row r="988">
+    <row r="988" ht="15" customHeight="1">
       <c r="A988" t="inlineStr">
         <is>
           <t>A 39170-2023</t>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59207,6 +59207,63 @@
         <v>0</v>
       </c>
       <c r="R988" s="2" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>A 41531-2023</t>
+        </is>
+      </c>
+      <c r="B989" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C989" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>NYBRO</t>
+        </is>
+      </c>
+      <c r="G989" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="n">
+        <v>0</v>
+      </c>
+      <c r="J989" t="n">
+        <v>0</v>
+      </c>
+      <c r="K989" t="n">
+        <v>0</v>
+      </c>
+      <c r="L989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0</v>
+      </c>
+      <c r="N989" t="n">
+        <v>0</v>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
+      <c r="R989" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45175</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45175</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45175</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45175</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y989"/>
+  <dimension ref="A1:Y990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59208,7 +59208,7 @@
       </c>
       <c r="R988" s="2" t="inlineStr"/>
     </row>
-    <row r="989">
+    <row r="989" ht="15" customHeight="1">
       <c r="A989" t="inlineStr">
         <is>
           <t>A 41531-2023</t>
@@ -59218,7 +59218,7 @@
         <v>45175</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59264,6 +59264,63 @@
         <v>0</v>
       </c>
       <c r="R989" s="2" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>A 42260-2023</t>
+        </is>
+      </c>
+      <c r="B990" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C990" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>NYBRO</t>
+        </is>
+      </c>
+      <c r="G990" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="n">
+        <v>0</v>
+      </c>
+      <c r="J990" t="n">
+        <v>0</v>
+      </c>
+      <c r="K990" t="n">
+        <v>0</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>0</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y990"/>
+  <dimension ref="A1:Y992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45175</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59265,7 +59265,7 @@
       </c>
       <c r="R989" s="2" t="inlineStr"/>
     </row>
-    <row r="990">
+    <row r="990" ht="15" customHeight="1">
       <c r="A990" t="inlineStr">
         <is>
           <t>A 42260-2023</t>
@@ -59275,7 +59275,7 @@
         <v>45180</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59321,6 +59321,120 @@
         <v>0</v>
       </c>
       <c r="R990" s="2" t="inlineStr"/>
+    </row>
+    <row r="991" ht="15" customHeight="1">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>A 42711-2023</t>
+        </is>
+      </c>
+      <c r="B991" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C991" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>NYBRO</t>
+        </is>
+      </c>
+      <c r="G991" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="n">
+        <v>0</v>
+      </c>
+      <c r="J991" t="n">
+        <v>0</v>
+      </c>
+      <c r="K991" t="n">
+        <v>0</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>0</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" s="2" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>A 42817-2023</t>
+        </is>
+      </c>
+      <c r="B992" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C992" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>NYBRO</t>
+        </is>
+      </c>
+      <c r="G992" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0</v>
+      </c>
+      <c r="I992" t="n">
+        <v>0</v>
+      </c>
+      <c r="J992" t="n">
+        <v>0</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>0</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43545</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43570</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43580</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43885</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43961</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44009</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44449</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44648</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44692</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44874</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45110</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43322</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43326</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43327</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>43328</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43340</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43350</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43354</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43356</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43367</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43370</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43382</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43392</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43395</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43403</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43409</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43411</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43412</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43424</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43430</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43437</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43439</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>43445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43446</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43448</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43449</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43452</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>43454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43460</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43463</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43475</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43476</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43480</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43486</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43490</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43493</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43496</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43500</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43501</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43504</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43507</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43508</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43510</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43531</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43535</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43536</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43542</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43545</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43546</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43549</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43552</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43560</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>43564</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>43566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43567</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43570</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43571</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43573</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43579</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43583</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43591</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43594</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43598</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43601</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43605</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>43607</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>43608</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43612</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>43613</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>43619</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>43620</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43621</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43626</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43628</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43634</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43640</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43641</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43643</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43648</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>43649</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>43650</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>43662</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43668</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>43669</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43672</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>43676</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>43678</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>43682</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>43683</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>43684</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>43686</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>43688</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>43690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>43691</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>43693</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>43698</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>43699</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>43704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>43705</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>43706</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>43709</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>43710</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>43713</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>43714</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>43717</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>43718</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>43719</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>43721</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>43725</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>43727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43731</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43732</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>43733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>43733</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>43734</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>43734</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>43735</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>43739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>43740</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>43741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>43742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>43742</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43746</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>43746</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>43747</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43747</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>43748</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>43759</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>43760</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>43760</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>43760</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>43766</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>43766</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>43766</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>43770</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>43771</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>43771</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>43774</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>43775</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>43775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>43775</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>43775</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>43777</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>43777</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>43780</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>43780</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>43781</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43782</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>43782</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>43784</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>43784</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>43784</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>43790</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>43791</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>43796</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43796</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43796</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43796</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43797</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43797</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43804</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43809</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43809</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43810</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>43815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>43819</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>43821</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>43832</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>43837</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43839</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43840</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43840</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43843</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43843</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43843</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43846</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43847</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43850</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43853</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43854</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43859</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43860</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43872</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43877</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43878</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43878</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43878</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43879</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>43879</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43887</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43887</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43888</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43893</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43894</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43896</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43899</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43907</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43908</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43913</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43914</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>43914</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>43914</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>43914</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>43914</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>43915</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>43916</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>43916</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>43917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>43917</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>43920</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>43922</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>43923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>43938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>43938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>43938</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>43938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>43955</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>43955</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>43955</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>43955</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>43956</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>43957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>43957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>43962</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>43964</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>43968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>43971</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>43973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>43975</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>43975</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>43980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>43987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>43991</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>43991</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>43991</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44004</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44004</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44005</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44005</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44009</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44014</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44018</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44020</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44021</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44021</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44025</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44026</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44035</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44046</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44050</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44050</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44054</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44059</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44060</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44060</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44064</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44071</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44076</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44077</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44078</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44083</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44083</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44083</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44083</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44084</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44088</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44088</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44089</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44089</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44092</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44112</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>44120</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37016,7 +37016,7 @@
         <v>44120</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37073,7 +37073,7 @@
         <v>44120</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>44120</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44123</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44125</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44130</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>44131</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>44136</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44137</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>44137</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>44138</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44152</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44158</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>44160</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44160</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>44161</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>44164</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>44169</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44169</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44172</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44173</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44179</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>44179</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44180</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>44183</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44183</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44183</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44183</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44186</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44187</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44194</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44201</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44201</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>44201</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44208</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44209</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>44211</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44217</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44217</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44218</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44223</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44224</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44224</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44225</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>44225</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44230</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>44231</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44236</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44236</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44243</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44245</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44246</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44246</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44249</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44249</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44250</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>44250</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>44256</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>44259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44261</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44270</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44272</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44277</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44278</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44284</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44285</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44302</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44306</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44308</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44314</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44320</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44322</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44328</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44335</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44342</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44347</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>44347</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>44348</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44351</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>44351</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>44355</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>44362</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42243,7 +42243,7 @@
         <v>44362</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44362</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44364</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>44365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>44365</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>44365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>44365</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>44365</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44365</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44368</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>44369</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44369</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44370</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>44375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44375</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44376</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>44376</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>44378</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44379</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44382</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>44384</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>44390</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44409</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43554,7 +43554,7 @@
         <v>44412</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43611,7 +43611,7 @@
         <v>44418</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>44418</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44419</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43782,7 +43782,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43839,7 +43839,7 @@
         <v>44431</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43896,7 +43896,7 @@
         <v>44431</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43953,7 +43953,7 @@
         <v>44445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44010,7 +44010,7 @@
         <v>44449</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>44449</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>44453</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         <v>44459</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>44461</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>44461</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>44462</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>44462</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44474</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44475</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44475</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44484</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44488</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44489</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44491</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44494</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>44495</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44497</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44505</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44505</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44508</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44508</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44512</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44529</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44551</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44551</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44566</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44566</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44567</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44570</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44581</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44582</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44586</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44587</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>44587</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46072,7 +46072,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46129,7 +46129,7 @@
         <v>44593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46186,7 +46186,7 @@
         <v>44593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44593</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44593</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>44594</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>44594</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
         <v>44596</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46642,7 +46642,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>44612</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>44621</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>44622</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>44628</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>44629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46984,7 +46984,7 @@
         <v>44630</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47041,7 +47041,7 @@
         <v>44634</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44634</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44637</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>44641</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>44641</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44643</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44650</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44651</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44651</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>44656</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>44657</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47688,7 +47688,7 @@
         <v>44657</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47745,7 +47745,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44672</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>44676</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44676</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44676</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44676</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44677</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44684</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44691</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44692</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>44697</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44697</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>44697</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>44699</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>44721</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>44727</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48692,7 +48692,7 @@
         <v>44732</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48749,7 +48749,7 @@
         <v>44734</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>44739</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>44742</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>44743</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>44749</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>44755</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>44756</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49153,7 +49153,7 @@
         <v>44783</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44796</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>44796</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>44796</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>44798</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>44798</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>44803</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44811</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44816</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>44816</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44816</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44818</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>44819</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44819</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44825</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44827</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>44838</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44839</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50246,7 +50246,7 @@
         <v>44839</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50303,7 +50303,7 @@
         <v>44840</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>44841</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>44844</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>44844</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>44844</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>44851</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44853</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44859</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44861</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>44865</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>44867</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>44868</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>44872</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>44876</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         <v>44881</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51567,7 +51567,7 @@
         <v>44882</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51624,7 +51624,7 @@
         <v>44882</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>44882</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51738,7 +51738,7 @@
         <v>44889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>44895</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51857,7 +51857,7 @@
         <v>44902</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51914,7 +51914,7 @@
         <v>44904</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51971,7 +51971,7 @@
         <v>44904</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52028,7 +52028,7 @@
         <v>44904</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44908</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>44908</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44910</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44910</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>44917</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52489,7 +52489,7 @@
         <v>44928</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         <v>44930</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44937</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44937</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44939</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44949</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>44951</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52898,7 +52898,7 @@
         <v>44951</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>44953</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44953</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44957</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53131,7 +53131,7 @@
         <v>44959</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>44959</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>44959</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>44965</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44966</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44972</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>44973</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>44979</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53592,7 +53592,7 @@
         <v>44980</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53649,7 +53649,7 @@
         <v>44982</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44984</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>44999</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>45001</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>45011</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45011</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>45012</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>45012</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54110,7 +54110,7 @@
         <v>45012</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>45012</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54224,7 +54224,7 @@
         <v>45015</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45021</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54343,7 +54343,7 @@
         <v>45022</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54400,7 +54400,7 @@
         <v>45022</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54457,7 +54457,7 @@
         <v>45022</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54514,7 +54514,7 @@
         <v>45022</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45028</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54628,7 +54628,7 @@
         <v>45033</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>45033</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>45035</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>45037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>45042</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>45042</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>45042</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>45043</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45048</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45049</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>45049</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55255,7 +55255,7 @@
         <v>45050</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55312,7 +55312,7 @@
         <v>45054</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55369,7 +55369,7 @@
         <v>45056</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45057</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>45057</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45057</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>45063</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>45069</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45070</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>45070</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55825,7 +55825,7 @@
         <v>45070</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55882,7 +55882,7 @@
         <v>45070</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -55939,7 +55939,7 @@
         <v>45071</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45072</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56053,7 +56053,7 @@
         <v>45075</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56110,7 +56110,7 @@
         <v>45075</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56167,7 +56167,7 @@
         <v>45075</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45075</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>45077</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56338,7 +56338,7 @@
         <v>45077</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         <v>45078</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56452,7 +56452,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56509,7 +56509,7 @@
         <v>45078</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56566,7 +56566,7 @@
         <v>45079</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56623,7 +56623,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45082</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56742,7 +56742,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45089</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56861,7 +56861,7 @@
         <v>45090</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45092</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45093</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57037,7 +57037,7 @@
         <v>45093</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45095</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57151,7 +57151,7 @@
         <v>45096</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57208,7 +57208,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57265,7 +57265,7 @@
         <v>45096</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57322,7 +57322,7 @@
         <v>45096</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57379,7 +57379,7 @@
         <v>45096</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57436,7 +57436,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57493,7 +57493,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>45098</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45098</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>45099</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45099</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45103</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         <v>45104</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45104</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -57959,7 +57959,7 @@
         <v>45107</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58016,7 +58016,7 @@
         <v>45110</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>45111</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58135,7 +58135,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58192,7 +58192,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45114</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         <v>45117</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58363,7 +58363,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58420,7 +58420,7 @@
         <v>45118</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58477,7 +58477,7 @@
         <v>45119</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58534,7 +58534,7 @@
         <v>45119</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58591,7 +58591,7 @@
         <v>45121</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58648,7 +58648,7 @@
         <v>45121</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58705,7 +58705,7 @@
         <v>45124</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45124</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58819,7 +58819,7 @@
         <v>45128</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58876,7 +58876,7 @@
         <v>45128</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45131</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45141</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45145</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>45159</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>45166</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45175</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         <v>45180</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59332,7 +59332,7 @@
         <v>45181</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59389,7 +59389,7 @@
         <v>45182</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>43322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43787</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44428</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43475</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44867</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43774</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44145</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44266</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45075</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45093</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45187</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43521</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>43559</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43580</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>43740</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43885</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43961</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43984</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44009</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44057</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44175</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44319</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44365</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44449</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44489</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44564</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>44602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44634</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>44648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44692</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44874</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44909</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>44917</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44917</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45056</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>45096</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45103</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>45111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43322</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43322</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43322</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43326</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43326</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43326</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43326</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43326</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43326</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43326</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43326</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43326</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43326</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43326</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43328</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43340</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43342</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43342</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43343</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43343</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43350</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43354</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43354</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43356</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43362</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43367</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43367</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43370</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43377</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43381</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43389</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43392</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43394</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43395</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43396</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43396</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>43396</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43403</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>43403</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>43409</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>43409</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43410</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43411</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>43412</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>43412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>43412</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>43413</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>43418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>43418</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>43424</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43427</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43430</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43434</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43437</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43438</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43439</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43439</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43446</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43448</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43449</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43452</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43452</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43452</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43452</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43454</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43454</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43460</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43460</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43460</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43463</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43463</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43463</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43472</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43472</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43479</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43480</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43480</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43481</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43482</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43485</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>43485</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>43485</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>43485</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>43486</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>43488</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43489</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>43490</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>43493</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>43495</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43496</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43500</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43500</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>43500</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43501</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43502</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>43503</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>43504</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>43507</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>43508</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43508</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43508</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43510</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>43510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>43510</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>43511</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43511</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43511</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43511</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43514</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43517</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43517</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43521</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43522</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43528</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>43529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43529</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43531</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>43532</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>43532</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>43532</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>43532</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>43532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>43532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>43532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>43532</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>43532</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>43535</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43536</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43542</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43542</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43542</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43545</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43545</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>43546</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43546</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43549</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43549</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43550</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43550</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>43552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43552</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43553</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43560</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43560</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43564</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43564</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43564</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43564</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43564</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43566</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43567</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>43567</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>43567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>43567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>43567</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>43567</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>43567</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>43570</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43571</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43571</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43573</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43579</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>43579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>43579</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>43579</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>43579</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>43579</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>43583</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>43583</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>43587</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43587</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>43587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43587</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43587</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43587</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43587</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43587</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>43587</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>43587</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>43587</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>43587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43587</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43591</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>43591</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43591</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43591</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43591</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43591</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43594</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43594</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>43598</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>43600</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43600</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43601</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>43601</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>43601</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>43605</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>43607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>43607</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>43607</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>43607</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>43608</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>43612</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>43612</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>43613</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>43619</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>43619</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>43620</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>43620</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>43621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>43621</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>43626</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>43628</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>43634</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>43635</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>43640</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>43640</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>43641</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>43641</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>43643</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>43643</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43648</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>43649</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>43649</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>43649</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>43650</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>43662</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>43662</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>43668</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>43669</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>43669</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>43672</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>43676</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>43678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>43678</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>43678</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>43682</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>43682</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>43683</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>43683</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>43683</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>43683</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>43683</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>43684</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>43686</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>43686</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>43688</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>43690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>43690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>43690</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>43691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>43691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>43691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>43693</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>43693</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>43698</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43698</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>43699</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>43703</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>43704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>43704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>43705</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>43705</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>43705</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>43706</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>43709</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>43710</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>43710</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>43713</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>43713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>43713</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>43714</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>43717</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>43717</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>43717</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>43718</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>43718</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>43718</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>43719</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>43719</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>43721</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>43721</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>43725</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>43727</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>43731</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>43732</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>43732</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>43733</v>
       </c>
       <c r="C419" s="1" t="n">
-  